--- a/Trotsuki's Adventure Unity Project/Trotsuki/Assets/Resources/Branching Criteria.xlsx
+++ b/Trotsuki's Adventure Unity Project/Trotsuki/Assets/Resources/Branching Criteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordie\Dropbox\Trotsuki's Adventure\Trotsuki-Adventure\Trotsuki's Adventure Unity Project\Trotsuki\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03F0EAF-E9E2-44E3-881F-2876124FE712}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B04706-6B8A-468A-A6E4-43CD658580CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
-      <selection activeCell="E821" sqref="E821"/>
+    <sheetView tabSelected="1" topLeftCell="A790" workbookViewId="0">
+      <selection activeCell="B821" sqref="B821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A21" si="0">ROUNDUP((ROW()-1)/4,0)</f>
+        <f>ROUNDUP((ROW()-1)/4,0)</f>
         <v>1</v>
       </c>
       <c r="B3">
@@ -970,7 +970,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A4:A21" si="0">ROUNDUP((ROW()-1)/4,0)</f>
         <v>1</v>
       </c>
       <c r="B4">
@@ -10579,7 +10579,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811">
-        <f t="shared" ref="A811:A821" si="11">ROUNDUP((ROW()-1)/4,0)</f>
+        <f t="shared" ref="A811:A819" si="11">ROUNDUP((ROW()-1)/4,0)</f>
         <v>203</v>
       </c>
       <c r="B811">
